--- a/Backlog/Backlog_team10.xlsx
+++ b/Backlog/Backlog_team10.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="61">
   <si>
     <t>Id</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -268,6 +268,10 @@
   </si>
   <si>
     <t>Release Three(Sprint Seven +Sprint Eight +Sprint Nine)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>As an mall customer  I Want to add goods to cart</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -473,6 +477,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -486,10 +496,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -505,9 +512,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1411,8 +1415,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S70"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="117" zoomScaleNormal="117" zoomScalePageLayoutView="117" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30:XFD30"/>
+    <sheetView topLeftCell="A4" zoomScale="117" zoomScaleNormal="117" zoomScalePageLayoutView="117" workbookViewId="0">
+      <selection activeCell="D24" sqref="A24:D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1757,7 +1761,7 @@
         <v>20</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="C24" s="7">
         <v>12</v>
@@ -2437,8 +2441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2451,16 +2455,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B4" s="1"/>
@@ -2482,7 +2486,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="39" t="s">
         <v>47</v>
       </c>
       <c r="B6" s="7">
@@ -2499,30 +2503,30 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="38"/>
+      <c r="A7" s="40"/>
       <c r="B7" s="7">
-        <v>9</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>23</v>
+        <v>2</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="D7" s="7">
-        <v>9</v>
-      </c>
-      <c r="E7" s="11">
+        <v>11</v>
+      </c>
+      <c r="E7" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="38"/>
+      <c r="A8" s="40"/>
       <c r="B8" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D8" s="7">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E8" s="7">
         <v>2</v>
@@ -2542,7 +2546,7 @@
       <c r="A13" s="14"/>
     </row>
     <row r="14" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="39" t="s">
+      <c r="A14" s="36" t="s">
         <v>9</v>
       </c>
       <c r="B14" s="7">
@@ -2559,7 +2563,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="39"/>
+      <c r="A15" s="36"/>
       <c r="B15" s="7">
         <v>11</v>
       </c>
@@ -2574,7 +2578,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="39"/>
+      <c r="A16" s="36"/>
       <c r="B16" s="7">
         <v>12</v>
       </c>
@@ -2602,7 +2606,7 @@
       <c r="F21" s="10"/>
     </row>
     <row r="23" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="39" t="s">
+      <c r="A23" s="36" t="s">
         <v>48</v>
       </c>
       <c r="B23" s="7">
@@ -2619,7 +2623,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="39"/>
+      <c r="A24" s="36"/>
       <c r="B24" s="11">
         <v>18</v>
       </c>
@@ -2634,7 +2638,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="39"/>
+      <c r="A25" s="36"/>
       <c r="B25" s="5">
         <v>19</v>
       </c>
@@ -2649,7 +2653,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="39"/>
+      <c r="A26" s="36"/>
       <c r="B26" s="23">
         <v>26</v>
       </c>
@@ -2664,7 +2668,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="39"/>
+      <c r="A27" s="36"/>
       <c r="B27" s="23">
         <v>25</v>
       </c>
@@ -2684,7 +2688,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="39" t="s">
+      <c r="A32" s="36" t="s">
         <v>49</v>
       </c>
       <c r="B32" s="7">
@@ -2701,22 +2705,22 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="39"/>
+      <c r="A33" s="36"/>
       <c r="B33" s="7">
-        <v>3</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>17</v>
+        <v>9</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>23</v>
       </c>
       <c r="D33" s="7">
-        <v>17</v>
-      </c>
-      <c r="E33" s="7">
+        <v>9</v>
+      </c>
+      <c r="E33" s="11">
         <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="39"/>
+      <c r="A34" s="36"/>
       <c r="B34" s="5">
         <v>6</v>
       </c>
@@ -2742,7 +2746,7 @@
       <c r="A38" s="26"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="40" t="s">
+      <c r="A39" s="35" t="s">
         <v>51</v>
       </c>
       <c r="B39" s="7">
@@ -2759,7 +2763,7 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="40"/>
+      <c r="A40" s="35"/>
       <c r="B40" s="7">
         <v>15</v>
       </c>
@@ -2782,12 +2786,24 @@
       <c r="A42" s="25"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="26"/>
+      <c r="A45" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="B45" s="22">
+        <v>20</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D45" s="7">
+        <v>12</v>
+      </c>
+      <c r="E45" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="39" t="s">
-        <v>52</v>
-      </c>
+      <c r="A46" s="36"/>
       <c r="B46" s="23">
         <v>21</v>
       </c>
@@ -2802,7 +2818,7 @@
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="39"/>
+      <c r="A47" s="36"/>
       <c r="B47" s="23">
         <v>22</v>
       </c>
@@ -2831,7 +2847,7 @@
       <c r="A52" s="14"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" s="36" t="s">
+      <c r="A54" s="38" t="s">
         <v>53</v>
       </c>
       <c r="B54" s="7">
@@ -2848,7 +2864,7 @@
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55" s="36"/>
+      <c r="A55" s="38"/>
       <c r="B55" s="11">
         <v>5</v>
       </c>
@@ -2863,7 +2879,7 @@
       </c>
     </row>
     <row r="56" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A56" s="36"/>
+      <c r="A56" s="38"/>
       <c r="B56" s="12">
         <v>7</v>
       </c>
@@ -2889,7 +2905,7 @@
       <c r="E61" s="5"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63" s="40" t="s">
+      <c r="A63" s="35" t="s">
         <v>56</v>
       </c>
       <c r="B63" s="7">
@@ -2906,7 +2922,7 @@
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A64" s="40"/>
+      <c r="A64" s="35"/>
       <c r="B64" s="11">
         <v>16</v>
       </c>
@@ -2921,7 +2937,7 @@
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A65" s="40"/>
+      <c r="A65" s="35"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="31" t="s">
@@ -2929,7 +2945,7 @@
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A69" s="39" t="s">
+      <c r="A69" s="36" t="s">
         <v>58</v>
       </c>
       <c r="B69" s="23">
@@ -2946,7 +2962,7 @@
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A70" s="39"/>
+      <c r="A70" s="36"/>
       <c r="B70" s="23">
         <v>24</v>
       </c>
@@ -2975,7 +2991,6 @@
   <mergeCells count="10">
     <mergeCell ref="A63:A65"/>
     <mergeCell ref="A39:A40"/>
-    <mergeCell ref="A46:A47"/>
     <mergeCell ref="A69:A70"/>
     <mergeCell ref="B1:D2"/>
     <mergeCell ref="A54:A56"/>
@@ -2983,6 +2998,7 @@
     <mergeCell ref="A23:A27"/>
     <mergeCell ref="A32:A34"/>
     <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A45:A47"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2996,7 +3012,7 @@
   <dimension ref="A2:F41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+      <selection activeCell="B6" sqref="B6:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3037,7 +3053,7 @@
       <c r="F4" s="6"/>
     </row>
     <row r="5" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="46" t="s">
+      <c r="A5" s="41" t="s">
         <v>54</v>
       </c>
       <c r="B5" s="7">
@@ -3052,26 +3068,26 @@
       <c r="E5" s="7">
         <v>3</v>
       </c>
-      <c r="F5" s="44"/>
+      <c r="F5" s="45"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="46"/>
+      <c r="A6" s="41"/>
       <c r="B6" s="7">
-        <v>9</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>23</v>
+        <v>3</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="D6" s="7">
-        <v>9</v>
-      </c>
-      <c r="E6" s="11">
-        <v>2</v>
-      </c>
-      <c r="F6" s="44"/>
+        <v>17</v>
+      </c>
+      <c r="E6" s="7">
+        <v>2</v>
+      </c>
+      <c r="F6" s="45"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="46"/>
+      <c r="A7" s="41"/>
       <c r="B7" s="7">
         <v>2</v>
       </c>
@@ -3084,10 +3100,10 @@
       <c r="E7" s="7">
         <v>2</v>
       </c>
-      <c r="F7" s="44"/>
+      <c r="F7" s="45"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="46"/>
+      <c r="A8" s="41"/>
       <c r="B8" s="7">
         <v>10</v>
       </c>
@@ -3100,10 +3116,10 @@
       <c r="E8" s="7">
         <v>2</v>
       </c>
-      <c r="F8" s="44"/>
+      <c r="F8" s="45"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="46"/>
+      <c r="A9" s="41"/>
       <c r="B9" s="7">
         <v>11</v>
       </c>
@@ -3116,10 +3132,10 @@
       <c r="E9" s="7">
         <v>2</v>
       </c>
-      <c r="F9" s="44"/>
+      <c r="F9" s="45"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="46"/>
+      <c r="A10" s="41"/>
       <c r="B10" s="7">
         <v>12</v>
       </c>
@@ -3134,7 +3150,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="46"/>
+      <c r="A11" s="41"/>
       <c r="B11" s="7">
         <v>17</v>
       </c>
@@ -3149,7 +3165,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="46"/>
+      <c r="A12" s="41"/>
       <c r="B12" s="11">
         <v>18</v>
       </c>
@@ -3164,7 +3180,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="46"/>
+      <c r="A13" s="41"/>
       <c r="B13" s="5">
         <v>19</v>
       </c>
@@ -3179,7 +3195,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="46"/>
+      <c r="A14" s="41"/>
       <c r="B14" s="23">
         <v>26</v>
       </c>
@@ -3194,7 +3210,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="46"/>
+      <c r="A15" s="41"/>
       <c r="B15" s="23">
         <v>25</v>
       </c>
@@ -3207,7 +3223,7 @@
       <c r="E15" s="20">
         <v>1</v>
       </c>
-      <c r="F15" s="45"/>
+      <c r="F15" s="46"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="32"/>
@@ -3215,15 +3231,11 @@
       <c r="C16" s="2"/>
       <c r="D16" s="21"/>
       <c r="E16" s="20"/>
-      <c r="F16" s="45"/>
+      <c r="F16" s="46"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="32"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="45"/>
+      <c r="F17" s="46"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="32"/>
@@ -3231,7 +3243,7 @@
       <c r="C18" s="3"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
-      <c r="F18" s="45"/>
+      <c r="F18" s="46"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="32"/>
@@ -3239,7 +3251,7 @@
       <c r="C19" s="3"/>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
-      <c r="F19" s="45"/>
+      <c r="F19" s="46"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="14"/>
@@ -3248,7 +3260,7 @@
       <c r="A21" s="14"/>
     </row>
     <row r="22" spans="1:6" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="46" t="s">
+      <c r="A22" s="41" t="s">
         <v>55</v>
       </c>
       <c r="B22" s="7">
@@ -3263,26 +3275,26 @@
       <c r="E22" s="7">
         <v>2</v>
       </c>
-      <c r="F22" s="42"/>
+      <c r="F22" s="43"/>
     </row>
     <row r="23" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="46"/>
+      <c r="A23" s="41"/>
       <c r="B23" s="7">
-        <v>3</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>17</v>
+        <v>9</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>23</v>
       </c>
       <c r="D23" s="7">
-        <v>17</v>
-      </c>
-      <c r="E23" s="7">
-        <v>2</v>
-      </c>
-      <c r="F23" s="43"/>
+        <v>9</v>
+      </c>
+      <c r="E23" s="11">
+        <v>2</v>
+      </c>
+      <c r="F23" s="44"/>
     </row>
     <row r="24" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="46"/>
+      <c r="A24" s="41"/>
       <c r="B24" s="5">
         <v>6</v>
       </c>
@@ -3295,10 +3307,10 @@
       <c r="E24" s="7">
         <v>2</v>
       </c>
-      <c r="F24" s="43"/>
+      <c r="F24" s="44"/>
     </row>
     <row r="25" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="46"/>
+      <c r="A25" s="41"/>
       <c r="B25" s="7">
         <v>14</v>
       </c>
@@ -3311,10 +3323,10 @@
       <c r="E25" s="7">
         <v>2</v>
       </c>
-      <c r="F25" s="43"/>
+      <c r="F25" s="44"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="46"/>
+      <c r="A26" s="41"/>
       <c r="B26" s="7">
         <v>15</v>
       </c>
@@ -3327,10 +3339,10 @@
       <c r="E26" s="7">
         <v>2</v>
       </c>
-      <c r="F26" s="43"/>
+      <c r="F26" s="44"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="46"/>
+      <c r="A27" s="41"/>
       <c r="B27" s="23">
         <v>21</v>
       </c>
@@ -3345,7 +3357,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="46"/>
+      <c r="A28" s="41"/>
       <c r="B28" s="23">
         <v>22</v>
       </c>
@@ -3381,7 +3393,7 @@
       <c r="E31" s="13"/>
     </row>
     <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="41" t="s">
+      <c r="A35" s="42" t="s">
         <v>59</v>
       </c>
       <c r="B35" s="7">
@@ -3398,7 +3410,7 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="41"/>
+      <c r="A36" s="42"/>
       <c r="B36" s="11">
         <v>5</v>
       </c>
@@ -3413,7 +3425,7 @@
       </c>
     </row>
     <row r="37" spans="1:5" ht="45" x14ac:dyDescent="0.2">
-      <c r="A37" s="41"/>
+      <c r="A37" s="42"/>
       <c r="B37" s="12">
         <v>7</v>
       </c>
@@ -3428,7 +3440,7 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="41"/>
+      <c r="A38" s="42"/>
       <c r="B38" s="7">
         <v>13</v>
       </c>
@@ -3443,7 +3455,7 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="41"/>
+      <c r="A39" s="42"/>
       <c r="B39" s="11">
         <v>16</v>
       </c>
@@ -3458,7 +3470,7 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="41"/>
+      <c r="A40" s="42"/>
       <c r="B40" s="23">
         <v>23</v>
       </c>
@@ -3473,7 +3485,7 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="41"/>
+      <c r="A41" s="42"/>
       <c r="B41" s="23">
         <v>24</v>
       </c>
@@ -3489,14 +3501,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="A5:A15"/>
+    <mergeCell ref="A22:A28"/>
+    <mergeCell ref="A35:A41"/>
     <mergeCell ref="F22:F26"/>
     <mergeCell ref="B2:C3"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="F5:F9"/>
     <mergeCell ref="F15:F19"/>
-    <mergeCell ref="A5:A15"/>
-    <mergeCell ref="A22:A28"/>
-    <mergeCell ref="A35:A41"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
